--- a/test/415 data.xlsx
+++ b/test/415 data.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balli\OneDrive\Desktop\supply-chain\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9015AAE4-805F-4A76-9B2E-1AA848316F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E280F0D-B2EF-4E4B-BFAC-322B102CC93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18630" yWindow="0" windowWidth="19860" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
     <sheet name="resources" sheetId="5" r:id="rId2"/>
     <sheet name="forecast" sheetId="2" r:id="rId3"/>
     <sheet name="requirements" sheetId="3" r:id="rId4"/>
-    <sheet name="constraints" sheetId="4" r:id="rId5"/>
-    <sheet name="inventory" sheetId="11" r:id="rId6"/>
-    <sheet name="calendar" sheetId="10" r:id="rId7"/>
+    <sheet name="example comp" sheetId="12" r:id="rId5"/>
+    <sheet name="constraints" sheetId="4" r:id="rId6"/>
+    <sheet name="inventory" sheetId="11" r:id="rId7"/>
+    <sheet name="calendar" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="60">
   <si>
     <t>item</t>
   </si>
@@ -217,13 +240,19 @@
   <si>
     <t>cost</t>
   </si>
+  <si>
+    <t>Level Load</t>
+  </si>
+  <si>
+    <t>87783</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -291,19 +320,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,7 +629,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -620,12 +650,12 @@
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
@@ -651,7 +681,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -677,7 +707,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
@@ -703,7 +733,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
@@ -729,7 +759,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -755,7 +785,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>43345</v>
       </c>
       <c r="B7" t="s">
@@ -781,7 +811,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>52042</v>
       </c>
       <c r="B8" t="s">
@@ -807,7 +837,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>52043</v>
       </c>
       <c r="B9" t="s">
@@ -833,7 +863,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>52044</v>
       </c>
       <c r="B10" t="s">
@@ -859,7 +889,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>52045</v>
       </c>
       <c r="B11" t="s">
@@ -885,7 +915,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>52046</v>
       </c>
       <c r="B12" t="s">
@@ -911,7 +941,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>52047</v>
       </c>
       <c r="B13" t="s">
@@ -937,7 +967,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>52048</v>
       </c>
       <c r="B14" t="s">
@@ -963,7 +993,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>52049</v>
       </c>
       <c r="B15" t="s">
@@ -989,7 +1019,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>52051</v>
       </c>
       <c r="B16" t="s">
@@ -1015,7 +1045,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>87783</v>
       </c>
       <c r="B17" t="s">
@@ -1041,7 +1071,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>91850</v>
       </c>
       <c r="B18" t="s">
@@ -1076,7 +1106,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1192,15 +1222,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CEA5BC-DEE7-42CC-81EB-835BD67FFC70}">
-  <dimension ref="A1:R188"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1222,7 +1252,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1233,7 +1263,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1244,7 +1274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1255,7 +1285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1266,7 +1296,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1277,7 +1307,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1287,16 +1317,8 @@
       <c r="C8">
         <v>222</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1307,7 +1329,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1318,7 +1340,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1329,7 +1351,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1340,7 +1362,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1351,18 +1373,8 @@
         <v>9208</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1373,7 +1385,7 @@
         <v>11179</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1384,7 +1396,7 @@
         <v>10872</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1394,20 +1406,8 @@
       <c r="C16" s="2">
         <v>7943</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>11201</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>9014</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>8085</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>7976</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>8191</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>10375</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>10241</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1495,18 +1495,8 @@
         <v>7897</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1517,7 +1507,7 @@
         <v>8859</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1528,7 +1518,7 @@
         <v>9132</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1539,7 +1529,7 @@
         <v>6689</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1550,7 +1540,7 @@
         <v>6607</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1561,7 +1551,7 @@
         <v>9375</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1572,7 +1562,7 @@
         <v>6173</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1583,7 +1573,7 @@
         <v>5691</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1594,7 +1584,7 @@
         <v>7839</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1605,7 +1595,7 @@
         <v>3369</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1616,7 +1606,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1627,7 +1617,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1638,7 +1628,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1649,7 +1639,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1660,7 +1650,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -1671,7 +1661,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -1682,7 +1672,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -1692,20 +1682,8 @@
       <c r="C41">
         <v>147</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1716,7 +1694,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1727,7 +1705,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1738,7 +1716,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -1749,7 +1727,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1760,18 +1738,8 @@
         <v>10746</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1782,7 +1750,7 @@
         <v>11626</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -1793,7 +1761,7 @@
         <v>11663</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1804,7 +1772,7 @@
         <v>9209</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1815,7 +1783,7 @@
         <v>9920</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1826,7 +1794,7 @@
         <v>10769</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -1836,20 +1804,8 @@
       <c r="C52" s="2">
         <v>7974</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1860,7 +1816,7 @@
         <v>8404</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -1871,7 +1827,7 @@
         <v>8808</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1838,7 @@
         <v>4640</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -1893,7 +1849,7 @@
         <v>5772</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>43345</v>
       </c>
@@ -1904,18 +1860,8 @@
         <v>4411</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>43345</v>
       </c>
@@ -1926,7 +1872,7 @@
         <v>7141</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>43345</v>
       </c>
@@ -1937,7 +1883,7 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>43345</v>
       </c>
@@ -1948,7 +1894,7 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>43345</v>
       </c>
@@ -1959,7 +1905,7 @@
         <v>5385</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>43345</v>
       </c>
@@ -1970,7 +1916,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>43345</v>
       </c>
@@ -1981,7 +1927,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>43345</v>
       </c>
@@ -1992,7 +1938,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>43345</v>
       </c>
@@ -2003,7 +1949,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>43345</v>
       </c>
@@ -2014,7 +1960,7 @@
         <v>4848</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>43345</v>
       </c>
@@ -2025,7 +1971,7 @@
         <v>4988</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>52042</v>
       </c>
@@ -2036,7 +1982,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>52042</v>
       </c>
@@ -2047,7 +1993,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>52042</v>
       </c>
@@ -2058,7 +2004,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>52042</v>
       </c>
@@ -2069,7 +2015,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>52042</v>
       </c>
@@ -2080,7 +2026,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>52042</v>
       </c>
@@ -2091,7 +2037,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>52042</v>
       </c>
@@ -2102,7 +2048,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>52042</v>
       </c>
@@ -2113,7 +2059,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>52042</v>
       </c>
@@ -2124,7 +2070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>52042</v>
       </c>
@@ -2135,7 +2081,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>52042</v>
       </c>
@@ -2146,7 +2092,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>52043</v>
       </c>
@@ -2157,9 +2103,8 @@
         <v>1310</v>
       </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>52043</v>
       </c>
@@ -2170,7 +2115,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>52043</v>
       </c>
@@ -2181,7 +2126,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>52043</v>
       </c>
@@ -2192,7 +2137,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>52043</v>
       </c>
@@ -2203,7 +2148,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>52043</v>
       </c>
@@ -2214,7 +2159,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>52043</v>
       </c>
@@ -2225,7 +2170,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>52043</v>
       </c>
@@ -2236,7 +2181,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>52043</v>
       </c>
@@ -2247,7 +2192,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>52043</v>
       </c>
@@ -2258,7 +2203,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>52043</v>
       </c>
@@ -2269,7 +2214,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>52044</v>
       </c>
@@ -2280,10 +2225,8 @@
         <v>1591</v>
       </c>
       <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>52044</v>
       </c>
@@ -2294,7 +2237,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>52044</v>
       </c>
@@ -2305,7 +2248,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>52044</v>
       </c>
@@ -2316,7 +2259,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>52044</v>
       </c>
@@ -2327,7 +2270,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>52044</v>
       </c>
@@ -2338,7 +2281,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>52044</v>
       </c>
@@ -2349,7 +2292,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>52044</v>
       </c>
@@ -2360,7 +2303,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>52044</v>
       </c>
@@ -2371,7 +2314,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>52044</v>
       </c>
@@ -2382,7 +2325,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>52044</v>
       </c>
@@ -2393,7 +2336,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>52045</v>
       </c>
@@ -2404,7 +2347,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>52045</v>
       </c>
@@ -2415,7 +2358,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>52045</v>
       </c>
@@ -2426,7 +2369,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>52045</v>
       </c>
@@ -2437,7 +2380,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>52045</v>
       </c>
@@ -2448,7 +2391,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>52045</v>
       </c>
@@ -2459,7 +2402,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>52045</v>
       </c>
@@ -2470,7 +2413,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>52045</v>
       </c>
@@ -2481,7 +2424,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>52045</v>
       </c>
@@ -2492,7 +2435,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>52045</v>
       </c>
@@ -2503,7 +2446,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>52045</v>
       </c>
@@ -2514,7 +2457,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>52046</v>
       </c>
@@ -2525,10 +2468,8 @@
         <v>1766</v>
       </c>
       <c r="E112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>52046</v>
       </c>
@@ -2539,7 +2480,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>52046</v>
       </c>
@@ -2550,7 +2491,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>52046</v>
       </c>
@@ -2561,7 +2502,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>52046</v>
       </c>
@@ -2572,7 +2513,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>52046</v>
       </c>
@@ -2583,7 +2524,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>52046</v>
       </c>
@@ -2594,7 +2535,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>52046</v>
       </c>
@@ -2605,7 +2546,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>52046</v>
       </c>
@@ -2616,7 +2557,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>52046</v>
       </c>
@@ -2627,7 +2568,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>52046</v>
       </c>
@@ -2638,7 +2579,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>52047</v>
       </c>
@@ -2649,12 +2590,8 @@
         <v>3395</v>
       </c>
       <c r="E123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="O123" s="2"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>52047</v>
       </c>
@@ -2665,7 +2602,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>52047</v>
       </c>
@@ -2676,7 +2613,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>52047</v>
       </c>
@@ -2687,7 +2624,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>52047</v>
       </c>
@@ -2698,7 +2635,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>52047</v>
       </c>
@@ -2885,7 +2822,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>52049</v>
       </c>
@@ -2896,7 +2833,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>52049</v>
       </c>
@@ -2907,7 +2844,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>52049</v>
       </c>
@@ -2918,7 +2855,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>52049</v>
       </c>
@@ -2929,7 +2866,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>52049</v>
       </c>
@@ -2940,7 +2877,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>52049</v>
       </c>
@@ -2951,7 +2888,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>52049</v>
       </c>
@@ -2962,7 +2899,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>52049</v>
       </c>
@@ -2973,7 +2910,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>52049</v>
       </c>
@@ -2984,7 +2921,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>52049</v>
       </c>
@@ -2995,7 +2932,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>52049</v>
       </c>
@@ -3006,7 +2943,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>52051</v>
       </c>
@@ -3017,16 +2954,8 @@
         <v>2063</v>
       </c>
       <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>52051</v>
       </c>
@@ -3037,7 +2966,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>52051</v>
       </c>
@@ -3048,7 +2977,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>52051</v>
       </c>
@@ -3059,7 +2988,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>52051</v>
       </c>
@@ -3070,7 +2999,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>52051</v>
       </c>
@@ -3081,7 +3010,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>52051</v>
       </c>
@@ -3092,7 +3021,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>52051</v>
       </c>
@@ -3103,7 +3032,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>52051</v>
       </c>
@@ -3114,7 +3043,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>52051</v>
       </c>
@@ -3125,7 +3054,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>52051</v>
       </c>
@@ -3136,7 +3065,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>87783</v>
       </c>
@@ -3147,18 +3076,8 @@
         <v>6283</v>
       </c>
       <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>87783</v>
       </c>
@@ -3169,7 +3088,7 @@
         <v>5217</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>87783</v>
       </c>
@@ -3180,7 +3099,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>87783</v>
       </c>
@@ -3191,7 +3110,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>87783</v>
       </c>
@@ -3202,7 +3121,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>87783</v>
       </c>
@@ -3213,7 +3132,7 @@
         <v>4386</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>87783</v>
       </c>
@@ -3224,7 +3143,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>87783</v>
       </c>
@@ -3235,7 +3154,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>87783</v>
       </c>
@@ -3246,7 +3165,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>87783</v>
       </c>
@@ -3257,7 +3176,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>87783</v>
       </c>
@@ -3268,7 +3187,7 @@
         <v>11947</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>91850</v>
       </c>
@@ -3279,18 +3198,8 @@
         <v>10800</v>
       </c>
       <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>91850</v>
       </c>
@@ -3301,7 +3210,7 @@
         <v>8826</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>91850</v>
       </c>
@@ -3312,7 +3221,7 @@
         <v>7009</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>91850</v>
       </c>
@@ -3323,7 +3232,7 @@
         <v>7598</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>91850</v>
       </c>
@@ -3334,7 +3243,7 @@
         <v>8868</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>91850</v>
       </c>
@@ -3345,7 +3254,7 @@
         <v>8278</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>91850</v>
       </c>
@@ -3356,7 +3265,7 @@
         <v>6340</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>91850</v>
       </c>
@@ -3367,7 +3276,7 @@
         <v>6344</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>91850</v>
       </c>
@@ -3378,7 +3287,7 @@
         <v>5971</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>91850</v>
       </c>
@@ -3389,7 +3298,7 @@
         <v>8579</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>91850</v>
       </c>
@@ -3411,14 +3320,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959B0A25-8181-4FB6-BFC1-26D645F901FD}">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView topLeftCell="B75" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3429,7 +3338,7 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3443,7 +3352,7 @@
       <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D2" t="s">
@@ -3457,7 +3366,7 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.01</v>
       </c>
       <c r="D3" t="s">
@@ -3471,7 +3380,7 @@
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.01</v>
       </c>
       <c r="D4" t="s">
@@ -3485,7 +3394,7 @@
       <c r="B5">
         <v>1505</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D5" t="s">
@@ -3499,7 +3408,7 @@
       <c r="B6">
         <v>1506</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1.619E-2</v>
       </c>
       <c r="D6" t="s">
@@ -3513,7 +3422,7 @@
       <c r="B7">
         <v>1507</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D7" t="s">
@@ -3527,7 +3436,7 @@
       <c r="B8">
         <v>1508</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D8" t="s">
@@ -3541,7 +3450,7 @@
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D9" t="s">
@@ -3555,7 +3464,7 @@
       <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>0.01</v>
       </c>
       <c r="D10" t="s">
@@ -3569,7 +3478,7 @@
       <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>0.01</v>
       </c>
       <c r="D11" t="s">
@@ -3583,7 +3492,7 @@
       <c r="B12">
         <v>1505</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D12" t="s">
@@ -3597,7 +3506,7 @@
       <c r="B13">
         <v>1506</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>1.619E-2</v>
       </c>
       <c r="D13" t="s">
@@ -3611,7 +3520,7 @@
       <c r="B14">
         <v>1507</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D14" t="s">
@@ -3625,7 +3534,7 @@
       <c r="B15">
         <v>1508</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D15" t="s">
@@ -3639,7 +3548,7 @@
       <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D16" t="s">
@@ -3653,7 +3562,7 @@
       <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>0.01</v>
       </c>
       <c r="D17" t="s">
@@ -3667,7 +3576,7 @@
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>0.01</v>
       </c>
       <c r="D18" t="s">
@@ -3681,7 +3590,7 @@
       <c r="B19">
         <v>1505</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D19" t="s">
@@ -3695,7 +3604,7 @@
       <c r="B20">
         <v>1506</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>1.619E-2</v>
       </c>
       <c r="D20" t="s">
@@ -3709,7 +3618,7 @@
       <c r="B21">
         <v>1507</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D21" t="s">
@@ -3723,7 +3632,7 @@
       <c r="B22">
         <v>1508</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D22" t="s">
@@ -3737,7 +3646,7 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D23" t="s">
@@ -3751,7 +3660,7 @@
       <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>0.01</v>
       </c>
       <c r="D24" t="s">
@@ -3765,7 +3674,7 @@
       <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>0.01</v>
       </c>
       <c r="D25" t="s">
@@ -3779,7 +3688,7 @@
       <c r="B26">
         <v>1505</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D26" t="s">
@@ -3793,7 +3702,7 @@
       <c r="B27">
         <v>1506</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>1.619E-2</v>
       </c>
       <c r="D27" t="s">
@@ -3807,7 +3716,7 @@
       <c r="B28">
         <v>1507</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D28" t="s">
@@ -3821,7 +3730,7 @@
       <c r="B29">
         <v>1508</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D29" t="s">
@@ -3835,7 +3744,7 @@
       <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D30" t="s">
@@ -3849,7 +3758,7 @@
       <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>0.01</v>
       </c>
       <c r="D31" t="s">
@@ -3863,7 +3772,7 @@
       <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>0.01</v>
       </c>
       <c r="D32" t="s">
@@ -3877,7 +3786,7 @@
       <c r="B33">
         <v>1505</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D33" t="s">
@@ -3891,7 +3800,7 @@
       <c r="B34">
         <v>1506</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>1.619E-2</v>
       </c>
       <c r="D34" t="s">
@@ -3905,7 +3814,7 @@
       <c r="B35">
         <v>1507</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D35" t="s">
@@ -3919,7 +3828,7 @@
       <c r="B36">
         <v>1508</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D36" t="s">
@@ -3933,7 +3842,7 @@
       <c r="B37" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D37" t="s">
@@ -3947,7 +3856,7 @@
       <c r="B38" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>0.01</v>
       </c>
       <c r="D38" t="s">
@@ -3961,7 +3870,7 @@
       <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>0.01</v>
       </c>
       <c r="D39" t="s">
@@ -3975,7 +3884,7 @@
       <c r="B40">
         <v>1505</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D40" t="s">
@@ -3989,7 +3898,7 @@
       <c r="B41">
         <v>1506</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>1.619E-2</v>
       </c>
       <c r="D41" t="s">
@@ -4003,7 +3912,7 @@
       <c r="B42">
         <v>1507</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D42" t="s">
@@ -4017,7 +3926,7 @@
       <c r="B43">
         <v>1508</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D43" t="s">
@@ -4031,7 +3940,7 @@
       <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D44" t="s">
@@ -4045,7 +3954,7 @@
       <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>0.01</v>
       </c>
       <c r="D45" t="s">
@@ -4059,7 +3968,7 @@
       <c r="B46" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>0.01</v>
       </c>
       <c r="D46" t="s">
@@ -4073,7 +3982,7 @@
       <c r="B47">
         <v>1505</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D47" t="s">
@@ -4087,7 +3996,7 @@
       <c r="B48">
         <v>1506</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>1.619E-2</v>
       </c>
       <c r="D48" t="s">
@@ -4101,7 +4010,7 @@
       <c r="B49">
         <v>1507</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D49" t="s">
@@ -4115,7 +4024,7 @@
       <c r="B50">
         <v>1508</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D50" t="s">
@@ -4129,7 +4038,7 @@
       <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D51" t="s">
@@ -4143,7 +4052,7 @@
       <c r="B52" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>0.01</v>
       </c>
       <c r="D52" t="s">
@@ -4157,7 +4066,7 @@
       <c r="B53" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>0.01</v>
       </c>
       <c r="D53" t="s">
@@ -4171,7 +4080,7 @@
       <c r="B54">
         <v>1505</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D54" t="s">
@@ -4185,7 +4094,7 @@
       <c r="B55">
         <v>1506</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>1.619E-2</v>
       </c>
       <c r="D55" t="s">
@@ -4199,7 +4108,7 @@
       <c r="B56">
         <v>1507</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D56" t="s">
@@ -4213,7 +4122,7 @@
       <c r="B57">
         <v>1508</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D57" t="s">
@@ -4227,7 +4136,7 @@
       <c r="B58" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D58" t="s">
@@ -4241,7 +4150,7 @@
       <c r="B59" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>0.01</v>
       </c>
       <c r="D59" t="s">
@@ -4255,7 +4164,7 @@
       <c r="B60" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>0.01</v>
       </c>
       <c r="D60" t="s">
@@ -4269,7 +4178,7 @@
       <c r="B61">
         <v>1505</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D61" t="s">
@@ -4283,7 +4192,7 @@
       <c r="B62">
         <v>1506</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>1.619E-2</v>
       </c>
       <c r="D62" t="s">
@@ -4297,7 +4206,7 @@
       <c r="B63">
         <v>1507</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D63" t="s">
@@ -4311,7 +4220,7 @@
       <c r="B64">
         <v>1508</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D64" t="s">
@@ -4325,7 +4234,7 @@
       <c r="B65" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D65" t="s">
@@ -4339,7 +4248,7 @@
       <c r="B66" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>0.01</v>
       </c>
       <c r="D66" t="s">
@@ -4353,7 +4262,7 @@
       <c r="B67" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <v>0.01</v>
       </c>
       <c r="D67" t="s">
@@ -4367,7 +4276,7 @@
       <c r="B68">
         <v>1505</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D68" t="s">
@@ -4381,7 +4290,7 @@
       <c r="B69">
         <v>1506</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>1.619E-2</v>
       </c>
       <c r="D69" t="s">
@@ -4395,7 +4304,7 @@
       <c r="B70">
         <v>1507</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D70" t="s">
@@ -4409,7 +4318,7 @@
       <c r="B71">
         <v>1508</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D71" t="s">
@@ -4423,7 +4332,7 @@
       <c r="B72" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D72" t="s">
@@ -4437,7 +4346,7 @@
       <c r="B73" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <v>0.01</v>
       </c>
       <c r="D73" t="s">
@@ -4451,7 +4360,7 @@
       <c r="B74" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="7">
         <v>0.01</v>
       </c>
       <c r="D74" t="s">
@@ -4465,7 +4374,7 @@
       <c r="B75">
         <v>1505</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D75" t="s">
@@ -4479,7 +4388,7 @@
       <c r="B76">
         <v>1506</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="7">
         <v>1.619E-2</v>
       </c>
       <c r="D76" t="s">
@@ -4493,7 +4402,7 @@
       <c r="B77">
         <v>1507</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D77" t="s">
@@ -4507,7 +4416,7 @@
       <c r="B78">
         <v>1508</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D78" t="s">
@@ -4521,7 +4430,7 @@
       <c r="B79" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D79" t="s">
@@ -4535,7 +4444,7 @@
       <c r="B80" t="s">
         <v>50</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="7">
         <v>0.01</v>
       </c>
       <c r="D80" t="s">
@@ -4549,7 +4458,7 @@
       <c r="B81" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="7">
         <v>0.01</v>
       </c>
       <c r="D81" t="s">
@@ -4563,7 +4472,7 @@
       <c r="B82">
         <v>1505</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D82" t="s">
@@ -4577,7 +4486,7 @@
       <c r="B83">
         <v>1506</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="7">
         <v>1.619E-2</v>
       </c>
       <c r="D83" t="s">
@@ -4591,7 +4500,7 @@
       <c r="B84">
         <v>1507</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D84" t="s">
@@ -4605,7 +4514,7 @@
       <c r="B85">
         <v>1508</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="7">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="D85" t="s">
@@ -4619,7 +4528,7 @@
       <c r="B86" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="7">
         <v>6.2090000000000001E-3</v>
       </c>
       <c r="D86" t="s">
@@ -4633,7 +4542,7 @@
       <c r="B87" t="s">
         <v>53</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D87" t="s">
@@ -4647,7 +4556,7 @@
       <c r="B88">
         <v>1506</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="7">
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="D88" t="s">
@@ -4661,7 +4570,7 @@
       <c r="B89">
         <v>1507</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="7">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="D89" t="s">
@@ -4675,7 +4584,7 @@
       <c r="B90">
         <v>1508</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="7">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="D90" t="s">
@@ -4689,7 +4598,7 @@
       <c r="B91" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="7">
         <v>6.2090000000000001E-3</v>
       </c>
       <c r="D91" t="s">
@@ -4703,7 +4612,7 @@
       <c r="B92" t="s">
         <v>53</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D92" t="s">
@@ -4717,7 +4626,7 @@
       <c r="B93">
         <v>1506</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="7">
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="D93" t="s">
@@ -4731,7 +4640,7 @@
       <c r="B94">
         <v>1507</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="7">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="D94" t="s">
@@ -4745,7 +4654,7 @@
       <c r="B95">
         <v>1508</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="7">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="D95" t="s">
@@ -4759,7 +4668,7 @@
       <c r="B96" t="s">
         <v>56</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="7">
         <v>6.2090000000000001E-3</v>
       </c>
       <c r="D96" t="s">
@@ -4773,7 +4682,7 @@
       <c r="B97" t="s">
         <v>53</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D97" t="s">
@@ -4787,7 +4696,7 @@
       <c r="B98">
         <v>1506</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="7">
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="D98" t="s">
@@ -4801,7 +4710,7 @@
       <c r="B99">
         <v>1507</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="7">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="D99" t="s">
@@ -4815,7 +4724,7 @@
       <c r="B100">
         <v>1508</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="7">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="D100" t="s">
@@ -4829,7 +4738,7 @@
       <c r="B101" t="s">
         <v>56</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="7">
         <v>6.2090000000000001E-3</v>
       </c>
       <c r="D101" t="s">
@@ -4843,7 +4752,7 @@
       <c r="B102" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D102" t="s">
@@ -4857,7 +4766,7 @@
       <c r="B103">
         <v>1506</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="7">
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="D103" t="s">
@@ -4871,7 +4780,7 @@
       <c r="B104">
         <v>1507</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="7">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="D104" t="s">
@@ -4885,7 +4794,7 @@
       <c r="B105">
         <v>1508</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="7">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="D105" t="s">
@@ -4899,7 +4808,7 @@
       <c r="B106" t="s">
         <v>56</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="7">
         <v>6.2090000000000001E-3</v>
       </c>
       <c r="D106" t="s">
@@ -4913,7 +4822,7 @@
       <c r="B107" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="7">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="D107" t="s">
@@ -4927,7 +4836,7 @@
       <c r="B108">
         <v>1506</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="7">
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="D108" t="s">
@@ -4941,7 +4850,7 @@
       <c r="B109">
         <v>1507</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="7">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="D109" t="s">
@@ -4955,7 +4864,7 @@
       <c r="B110">
         <v>1508</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="7">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="D110" t="s">
@@ -4980,11 +4889,1921 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47357923-115F-4038-A28F-CC22F9C8363B}">
+  <dimension ref="B2:AT25"/>
+  <sheetViews>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AP12" sqref="AP12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="C2" s="11">
+        <v>43345</v>
+      </c>
+      <c r="D2" s="11">
+        <v>52042</v>
+      </c>
+      <c r="E2" s="11">
+        <v>52043</v>
+      </c>
+      <c r="F2" s="11">
+        <v>52044</v>
+      </c>
+      <c r="G2" s="11">
+        <v>52045</v>
+      </c>
+      <c r="H2" s="11">
+        <v>52046</v>
+      </c>
+      <c r="I2" s="11">
+        <v>52047</v>
+      </c>
+      <c r="J2" s="11">
+        <v>52048</v>
+      </c>
+      <c r="K2" s="11">
+        <v>52049</v>
+      </c>
+      <c r="L2" s="11">
+        <v>52051</v>
+      </c>
+      <c r="M2" s="11">
+        <v>87783</v>
+      </c>
+      <c r="N2" s="11">
+        <v>91850</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="11">
+        <v>202310</v>
+      </c>
+      <c r="W2" s="11">
+        <v>202311</v>
+      </c>
+      <c r="X2" s="11">
+        <v>202312</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>202401</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>202402</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>202403</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>202404</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>202405</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>202406</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>202407</v>
+      </c>
+      <c r="AF2" s="11">
+        <v>202408</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>202310</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>202311</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>202312</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>202401</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>202402</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>202403</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>202404</v>
+      </c>
+      <c r="AP2" s="11">
+        <v>202405</v>
+      </c>
+      <c r="AQ2" s="11">
+        <v>202406</v>
+      </c>
+      <c r="AR2" s="11">
+        <v>202407</v>
+      </c>
+      <c r="AS2" s="11">
+        <v>202408</v>
+      </c>
+    </row>
+    <row r="3" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B3" s="11">
+        <v>1505</v>
+      </c>
+      <c r="C3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="D3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="F3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="G3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="H3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="J3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="K3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="L3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="M3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="N3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="11">
+        <v>43345</v>
+      </c>
+      <c r="V3">
+        <v>4411</v>
+      </c>
+      <c r="W3">
+        <v>7141</v>
+      </c>
+      <c r="X3">
+        <v>7023</v>
+      </c>
+      <c r="Y3">
+        <v>3282</v>
+      </c>
+      <c r="Z3">
+        <v>5385</v>
+      </c>
+      <c r="AA3">
+        <v>3718</v>
+      </c>
+      <c r="AB3">
+        <v>3882</v>
+      </c>
+      <c r="AC3">
+        <v>4275</v>
+      </c>
+      <c r="AD3">
+        <v>2902</v>
+      </c>
+      <c r="AE3">
+        <v>4848</v>
+      </c>
+      <c r="AF3">
+        <v>4988</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>1505</v>
+      </c>
+      <c r="AI3" cm="1">
+        <f t="array" ref="AI3:AS10">MMULT(C3:S10, V3:AF19)</f>
+        <v>281.7423</v>
+      </c>
+      <c r="AJ3">
+        <v>241.83360000000002</v>
+      </c>
+      <c r="AK3">
+        <v>233.57159999999999</v>
+      </c>
+      <c r="AL3">
+        <v>196.4007</v>
+      </c>
+      <c r="AM3">
+        <v>199.96469999999999</v>
+      </c>
+      <c r="AN3">
+        <v>169.23329999999999</v>
+      </c>
+      <c r="AO3">
+        <v>132.435</v>
+      </c>
+      <c r="AP3">
+        <v>143.34570000000002</v>
+      </c>
+      <c r="AQ3">
+        <v>134.55719999999999</v>
+      </c>
+      <c r="AR3">
+        <v>173.32380000000001</v>
+      </c>
+      <c r="AS3">
+        <v>250.77599999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B4" s="11">
+        <v>1506</v>
+      </c>
+      <c r="C4">
+        <v>1.619E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.619E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.619E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.619E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.619E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.619E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.619E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.619E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.619E-2</v>
+      </c>
+      <c r="L4">
+        <v>1.619E-2</v>
+      </c>
+      <c r="M4">
+        <v>1.619E-2</v>
+      </c>
+      <c r="N4">
+        <v>1.619E-2</v>
+      </c>
+      <c r="O4">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="P4">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="Q4">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="R4">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="S4">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="U4" s="11">
+        <v>52042</v>
+      </c>
+      <c r="V4">
+        <v>655</v>
+      </c>
+      <c r="W4">
+        <v>499</v>
+      </c>
+      <c r="X4">
+        <v>312</v>
+      </c>
+      <c r="Y4">
+        <v>287</v>
+      </c>
+      <c r="Z4">
+        <v>162</v>
+      </c>
+      <c r="AA4">
+        <v>168</v>
+      </c>
+      <c r="AB4">
+        <v>69</v>
+      </c>
+      <c r="AC4">
+        <v>106</v>
+      </c>
+      <c r="AD4">
+        <v>56</v>
+      </c>
+      <c r="AE4">
+        <v>106</v>
+      </c>
+      <c r="AF4">
+        <v>137</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>1506</v>
+      </c>
+      <c r="AI4">
+        <v>792.64656999999988</v>
+      </c>
+      <c r="AJ4">
+        <v>747.10524000000009</v>
+      </c>
+      <c r="AK4">
+        <v>728.59884</v>
+      </c>
+      <c r="AL4">
+        <v>589.38353000000006</v>
+      </c>
+      <c r="AM4">
+        <v>633.48913000000005</v>
+      </c>
+      <c r="AN4">
+        <v>580.32987000000003</v>
+      </c>
+      <c r="AO4">
+        <v>450.03470000000004</v>
+      </c>
+      <c r="AP4">
+        <v>469.21863000000002</v>
+      </c>
+      <c r="AQ4">
+        <v>477.26108000000005</v>
+      </c>
+      <c r="AR4">
+        <v>499.94582000000003</v>
+      </c>
+      <c r="AS4">
+        <v>669.32600000000014</v>
+      </c>
+    </row>
+    <row r="5" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B5" s="11">
+        <v>1507</v>
+      </c>
+      <c r="C5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="D5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="F5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="G5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="H5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="J5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="K5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="L5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="M5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="N5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="O5">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="P5">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="Q5">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="R5">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="S5">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="U5" s="11">
+        <v>52043</v>
+      </c>
+      <c r="V5">
+        <v>1310</v>
+      </c>
+      <c r="W5">
+        <v>1192</v>
+      </c>
+      <c r="X5">
+        <v>518</v>
+      </c>
+      <c r="Y5">
+        <v>524</v>
+      </c>
+      <c r="Z5">
+        <v>543</v>
+      </c>
+      <c r="AA5">
+        <v>418</v>
+      </c>
+      <c r="AB5">
+        <v>293</v>
+      </c>
+      <c r="AC5">
+        <v>275</v>
+      </c>
+      <c r="AD5">
+        <v>324</v>
+      </c>
+      <c r="AE5">
+        <v>331</v>
+      </c>
+      <c r="AF5">
+        <v>462</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>1507</v>
+      </c>
+      <c r="AI5">
+        <v>396.49719999999996</v>
+      </c>
+      <c r="AJ5">
+        <v>373.70190000000002</v>
+      </c>
+      <c r="AK5">
+        <v>364.4436</v>
+      </c>
+      <c r="AL5">
+        <v>294.81299999999999</v>
+      </c>
+      <c r="AM5">
+        <v>316.86800000000005</v>
+      </c>
+      <c r="AN5">
+        <v>290.26940000000002</v>
+      </c>
+      <c r="AO5">
+        <v>225.09910000000002</v>
+      </c>
+      <c r="AP5">
+        <v>234.69780000000006</v>
+      </c>
+      <c r="AQ5">
+        <v>238.71360000000001</v>
+      </c>
+      <c r="AR5">
+        <v>250.07990000000001</v>
+      </c>
+      <c r="AS5">
+        <v>334.81780000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B6" s="11">
+        <v>1508</v>
+      </c>
+      <c r="C6">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="D6">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E6">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="F6">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="G6">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="H6">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I6">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="J6">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="K6">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="L6">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="M6">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="N6">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="O6">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="P6">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="Q6">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="R6">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="S6">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="U6" s="11">
+        <v>52044</v>
+      </c>
+      <c r="V6">
+        <v>1591</v>
+      </c>
+      <c r="W6">
+        <v>1367</v>
+      </c>
+      <c r="X6">
+        <v>1042</v>
+      </c>
+      <c r="Y6">
+        <v>899</v>
+      </c>
+      <c r="Z6">
+        <v>612</v>
+      </c>
+      <c r="AA6">
+        <v>424</v>
+      </c>
+      <c r="AB6">
+        <v>300</v>
+      </c>
+      <c r="AC6">
+        <v>393</v>
+      </c>
+      <c r="AD6">
+        <v>418</v>
+      </c>
+      <c r="AE6">
+        <v>412</v>
+      </c>
+      <c r="AF6">
+        <v>636</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>1508</v>
+      </c>
+      <c r="AI6">
+        <v>396.49719999999996</v>
+      </c>
+      <c r="AJ6">
+        <v>373.70190000000002</v>
+      </c>
+      <c r="AK6">
+        <v>364.4436</v>
+      </c>
+      <c r="AL6">
+        <v>294.81299999999999</v>
+      </c>
+      <c r="AM6">
+        <v>316.86800000000005</v>
+      </c>
+      <c r="AN6">
+        <v>290.26940000000002</v>
+      </c>
+      <c r="AO6">
+        <v>225.09910000000002</v>
+      </c>
+      <c r="AP6">
+        <v>234.69780000000006</v>
+      </c>
+      <c r="AQ6">
+        <v>238.71360000000001</v>
+      </c>
+      <c r="AR6">
+        <v>250.07990000000001</v>
+      </c>
+      <c r="AS6">
+        <v>334.81780000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="D7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="E7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="F7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="H7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="I7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="J7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="K7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="L7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="M7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="N7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="O7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="P7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="Q7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="R7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="S7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="U7" s="11">
+        <v>52045</v>
+      </c>
+      <c r="V7">
+        <v>924</v>
+      </c>
+      <c r="W7">
+        <v>824</v>
+      </c>
+      <c r="X7">
+        <v>493</v>
+      </c>
+      <c r="Y7">
+        <v>605</v>
+      </c>
+      <c r="Z7">
+        <v>343</v>
+      </c>
+      <c r="AA7">
+        <v>237</v>
+      </c>
+      <c r="AB7">
+        <v>218</v>
+      </c>
+      <c r="AC7">
+        <v>119</v>
+      </c>
+      <c r="AD7">
+        <v>231</v>
+      </c>
+      <c r="AE7">
+        <v>250</v>
+      </c>
+      <c r="AF7">
+        <v>212</v>
+      </c>
+      <c r="AH7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI7">
+        <v>209.03075999999999</v>
+      </c>
+      <c r="AJ7">
+        <v>206.52327000000002</v>
+      </c>
+      <c r="AK7">
+        <v>202.31747999999999</v>
+      </c>
+      <c r="AL7">
+        <v>160.67250000000001</v>
+      </c>
+      <c r="AM7">
+        <v>177.15600000000001</v>
+      </c>
+      <c r="AN7">
+        <v>167.87861999999998</v>
+      </c>
+      <c r="AO7">
+        <v>129.70683</v>
+      </c>
+      <c r="AP7">
+        <v>133.12674000000001</v>
+      </c>
+      <c r="AQ7">
+        <v>139.91327999999999</v>
+      </c>
+      <c r="AR7">
+        <v>133.59627</v>
+      </c>
+      <c r="AS7">
+        <v>171.35514000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>6.2090000000000001E-3</v>
+      </c>
+      <c r="P8">
+        <v>6.2090000000000001E-3</v>
+      </c>
+      <c r="Q8">
+        <v>6.2090000000000001E-3</v>
+      </c>
+      <c r="R8">
+        <v>6.2090000000000001E-3</v>
+      </c>
+      <c r="S8">
+        <v>6.2090000000000001E-3</v>
+      </c>
+      <c r="U8" s="11">
+        <v>52046</v>
+      </c>
+      <c r="V8">
+        <v>1766</v>
+      </c>
+      <c r="W8">
+        <v>568</v>
+      </c>
+      <c r="X8">
+        <v>1149</v>
+      </c>
+      <c r="Y8">
+        <v>1161</v>
+      </c>
+      <c r="Z8">
+        <v>649</v>
+      </c>
+      <c r="AA8">
+        <v>587</v>
+      </c>
+      <c r="AB8">
+        <v>293</v>
+      </c>
+      <c r="AC8">
+        <v>387</v>
+      </c>
+      <c r="AD8">
+        <v>449</v>
+      </c>
+      <c r="AE8">
+        <v>406</v>
+      </c>
+      <c r="AF8">
+        <v>649</v>
+      </c>
+      <c r="AH8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI8">
+        <v>173.78370100000001</v>
+      </c>
+      <c r="AJ8">
+        <v>199.70006699999999</v>
+      </c>
+      <c r="AK8">
+        <v>198.19128000000001</v>
+      </c>
+      <c r="AL8">
+        <v>149.034627</v>
+      </c>
+      <c r="AM8">
+        <v>177.037217</v>
+      </c>
+      <c r="AN8">
+        <v>183.29588900000002</v>
+      </c>
+      <c r="AO8">
+        <v>140.329609</v>
+      </c>
+      <c r="AP8">
+        <v>138.34272900000002</v>
+      </c>
+      <c r="AQ8">
+        <v>157.73343600000001</v>
+      </c>
+      <c r="AR8">
+        <v>116.23868899999999</v>
+      </c>
+      <c r="AS8">
+        <v>127.27208199999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9">
+        <v>0.01</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="G9">
+        <v>0.01</v>
+      </c>
+      <c r="H9">
+        <v>0.01</v>
+      </c>
+      <c r="I9">
+        <v>0.01</v>
+      </c>
+      <c r="J9">
+        <v>0.01</v>
+      </c>
+      <c r="K9">
+        <v>0.01</v>
+      </c>
+      <c r="L9">
+        <v>0.01</v>
+      </c>
+      <c r="M9">
+        <v>0.01</v>
+      </c>
+      <c r="N9">
+        <v>0.01</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <v>52047</v>
+      </c>
+      <c r="V9">
+        <v>3395</v>
+      </c>
+      <c r="W9">
+        <v>599</v>
+      </c>
+      <c r="X9">
+        <v>2220</v>
+      </c>
+      <c r="Y9">
+        <v>2135</v>
+      </c>
+      <c r="Z9">
+        <v>1354</v>
+      </c>
+      <c r="AA9">
+        <v>786</v>
+      </c>
+      <c r="AB9">
+        <v>661</v>
+      </c>
+      <c r="AC9">
+        <v>699</v>
+      </c>
+      <c r="AD9">
+        <v>936</v>
+      </c>
+      <c r="AE9">
+        <v>886</v>
+      </c>
+      <c r="AF9">
+        <v>1123</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI9">
+        <v>347.83</v>
+      </c>
+      <c r="AJ9">
+        <v>298.56</v>
+      </c>
+      <c r="AK9">
+        <v>288.36</v>
+      </c>
+      <c r="AL9">
+        <v>242.47000000000003</v>
+      </c>
+      <c r="AM9">
+        <v>246.87</v>
+      </c>
+      <c r="AN9">
+        <v>208.93</v>
+      </c>
+      <c r="AO9">
+        <v>163.5</v>
+      </c>
+      <c r="AP9">
+        <v>176.97000000000003</v>
+      </c>
+      <c r="AQ9">
+        <v>166.12</v>
+      </c>
+      <c r="AR9">
+        <v>213.98000000000002</v>
+      </c>
+      <c r="AS9">
+        <v>309.60000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>0.01</v>
+      </c>
+      <c r="D10">
+        <v>0.01</v>
+      </c>
+      <c r="E10">
+        <v>0.01</v>
+      </c>
+      <c r="F10">
+        <v>0.01</v>
+      </c>
+      <c r="G10">
+        <v>0.01</v>
+      </c>
+      <c r="H10">
+        <v>0.01</v>
+      </c>
+      <c r="I10">
+        <v>0.01</v>
+      </c>
+      <c r="J10">
+        <v>0.01</v>
+      </c>
+      <c r="K10">
+        <v>0.01</v>
+      </c>
+      <c r="L10">
+        <v>0.01</v>
+      </c>
+      <c r="M10">
+        <v>0.01</v>
+      </c>
+      <c r="N10">
+        <v>0.01</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="11">
+        <v>52048</v>
+      </c>
+      <c r="V10">
+        <v>593</v>
+      </c>
+      <c r="W10">
+        <v>318</v>
+      </c>
+      <c r="X10">
+        <v>587</v>
+      </c>
+      <c r="Y10">
+        <v>580</v>
+      </c>
+      <c r="Z10">
+        <v>331</v>
+      </c>
+      <c r="AA10">
+        <v>187</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>343</v>
+      </c>
+      <c r="AD10">
+        <v>212</v>
+      </c>
+      <c r="AE10">
+        <v>175</v>
+      </c>
+      <c r="AF10">
+        <v>225</v>
+      </c>
+      <c r="AH10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI10">
+        <v>347.83</v>
+      </c>
+      <c r="AJ10">
+        <v>298.56</v>
+      </c>
+      <c r="AK10">
+        <v>288.36</v>
+      </c>
+      <c r="AL10">
+        <v>242.47000000000003</v>
+      </c>
+      <c r="AM10">
+        <v>246.87</v>
+      </c>
+      <c r="AN10">
+        <v>208.93</v>
+      </c>
+      <c r="AO10">
+        <v>163.5</v>
+      </c>
+      <c r="AP10">
+        <v>176.97000000000003</v>
+      </c>
+      <c r="AQ10">
+        <v>166.12</v>
+      </c>
+      <c r="AR10">
+        <v>213.98000000000002</v>
+      </c>
+      <c r="AS10">
+        <v>309.60000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="U11" s="11">
+        <v>52049</v>
+      </c>
+      <c r="V11">
+        <v>992</v>
+      </c>
+      <c r="W11">
+        <v>711</v>
+      </c>
+      <c r="X11">
+        <v>649</v>
+      </c>
+      <c r="Y11">
+        <v>524</v>
+      </c>
+      <c r="Z11">
+        <v>449</v>
+      </c>
+      <c r="AA11">
+        <v>372</v>
+      </c>
+      <c r="AB11">
+        <v>256</v>
+      </c>
+      <c r="AC11">
+        <v>293</v>
+      </c>
+      <c r="AD11">
+        <v>225</v>
+      </c>
+      <c r="AE11">
+        <v>218</v>
+      </c>
+      <c r="AF11">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="U12" s="11">
+        <v>52051</v>
+      </c>
+      <c r="V12">
+        <v>2063</v>
+      </c>
+      <c r="W12">
+        <v>2594</v>
+      </c>
+      <c r="X12">
+        <v>2685</v>
+      </c>
+      <c r="Y12">
+        <v>1243</v>
+      </c>
+      <c r="Z12">
+        <v>1511</v>
+      </c>
+      <c r="AA12">
+        <v>1332</v>
+      </c>
+      <c r="AB12">
+        <v>738</v>
+      </c>
+      <c r="AC12">
+        <v>918</v>
+      </c>
+      <c r="AD12">
+        <v>1062</v>
+      </c>
+      <c r="AE12">
+        <v>1254</v>
+      </c>
+      <c r="AF12">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="13" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="U13" s="11">
+        <v>87783</v>
+      </c>
+      <c r="V13">
+        <v>6283</v>
+      </c>
+      <c r="W13">
+        <v>5217</v>
+      </c>
+      <c r="X13">
+        <v>5149</v>
+      </c>
+      <c r="Y13">
+        <v>5409</v>
+      </c>
+      <c r="Z13">
+        <v>4480</v>
+      </c>
+      <c r="AA13">
+        <v>4386</v>
+      </c>
+      <c r="AB13">
+        <v>3300</v>
+      </c>
+      <c r="AC13">
+        <v>3545</v>
+      </c>
+      <c r="AD13">
+        <v>3826</v>
+      </c>
+      <c r="AE13">
+        <v>3933</v>
+      </c>
+      <c r="AF13">
+        <v>11947</v>
+      </c>
+    </row>
+    <row r="14" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="U14" s="11">
+        <v>91850</v>
+      </c>
+      <c r="V14">
+        <v>10800</v>
+      </c>
+      <c r="W14">
+        <v>8826</v>
+      </c>
+      <c r="X14">
+        <v>7009</v>
+      </c>
+      <c r="Y14">
+        <v>7598</v>
+      </c>
+      <c r="Z14">
+        <v>8868</v>
+      </c>
+      <c r="AA14">
+        <v>8278</v>
+      </c>
+      <c r="AB14">
+        <v>6340</v>
+      </c>
+      <c r="AC14">
+        <v>6344</v>
+      </c>
+      <c r="AD14">
+        <v>5971</v>
+      </c>
+      <c r="AE14">
+        <v>8579</v>
+      </c>
+      <c r="AF14">
+        <v>8661</v>
+      </c>
+      <c r="AI14" s="11">
+        <v>202310</v>
+      </c>
+      <c r="AJ14" s="11">
+        <v>202311</v>
+      </c>
+      <c r="AK14" s="11">
+        <v>202312</v>
+      </c>
+      <c r="AL14" s="11">
+        <v>202401</v>
+      </c>
+      <c r="AM14" s="11">
+        <v>202402</v>
+      </c>
+      <c r="AN14" s="11">
+        <v>202403</v>
+      </c>
+      <c r="AO14" s="11">
+        <v>202404</v>
+      </c>
+      <c r="AP14" s="11">
+        <v>202405</v>
+      </c>
+      <c r="AQ14" s="11">
+        <v>202406</v>
+      </c>
+      <c r="AR14" s="11">
+        <v>202407</v>
+      </c>
+      <c r="AS14" s="11">
+        <v>202408</v>
+      </c>
+      <c r="AT14" s="11"/>
+    </row>
+    <row r="15" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="U15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15">
+        <v>71</v>
+      </c>
+      <c r="W15">
+        <v>324</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>663</v>
+      </c>
+      <c r="AA15">
+        <v>211</v>
+      </c>
+      <c r="AB15">
+        <v>222</v>
+      </c>
+      <c r="AC15">
+        <v>107</v>
+      </c>
+      <c r="AD15">
+        <v>231</v>
+      </c>
+      <c r="AE15">
+        <v>222</v>
+      </c>
+      <c r="AF15">
+        <v>483</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI15">
+        <v>180</v>
+      </c>
+      <c r="AJ15">
+        <v>170</v>
+      </c>
+      <c r="AK15">
+        <v>140</v>
+      </c>
+      <c r="AL15">
+        <v>180</v>
+      </c>
+      <c r="AM15">
+        <v>170</v>
+      </c>
+      <c r="AN15">
+        <v>160</v>
+      </c>
+      <c r="AO15">
+        <v>170</v>
+      </c>
+      <c r="AP15">
+        <v>170</v>
+      </c>
+      <c r="AQ15">
+        <v>160</v>
+      </c>
+      <c r="AR15">
+        <v>180</v>
+      </c>
+      <c r="AS15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="U16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V16">
+        <v>9208</v>
+      </c>
+      <c r="W16">
+        <v>11179</v>
+      </c>
+      <c r="X16">
+        <v>10872</v>
+      </c>
+      <c r="Y16">
+        <v>7943</v>
+      </c>
+      <c r="Z16">
+        <v>11201</v>
+      </c>
+      <c r="AA16">
+        <v>9014</v>
+      </c>
+      <c r="AB16">
+        <v>8085</v>
+      </c>
+      <c r="AC16">
+        <v>7976</v>
+      </c>
+      <c r="AD16">
+        <v>8191</v>
+      </c>
+      <c r="AE16">
+        <v>10375</v>
+      </c>
+      <c r="AF16">
+        <v>10241</v>
+      </c>
+      <c r="AH16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI16">
+        <v>360</v>
+      </c>
+      <c r="AJ16">
+        <v>340</v>
+      </c>
+      <c r="AK16">
+        <v>280</v>
+      </c>
+      <c r="AL16">
+        <v>360</v>
+      </c>
+      <c r="AM16">
+        <v>340</v>
+      </c>
+      <c r="AN16">
+        <v>320</v>
+      </c>
+      <c r="AO16">
+        <v>340</v>
+      </c>
+      <c r="AP16">
+        <v>340</v>
+      </c>
+      <c r="AQ16">
+        <v>320</v>
+      </c>
+      <c r="AR16">
+        <v>360</v>
+      </c>
+      <c r="AS16">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="21:45" x14ac:dyDescent="0.35">
+      <c r="U17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17">
+        <v>7897</v>
+      </c>
+      <c r="W17">
+        <v>8859</v>
+      </c>
+      <c r="X17">
+        <v>9132</v>
+      </c>
+      <c r="Y17">
+        <v>6689</v>
+      </c>
+      <c r="Z17">
+        <v>6607</v>
+      </c>
+      <c r="AA17">
+        <v>9375</v>
+      </c>
+      <c r="AB17">
+        <v>6173</v>
+      </c>
+      <c r="AC17">
+        <v>5691</v>
+      </c>
+      <c r="AD17">
+        <v>7839</v>
+      </c>
+      <c r="AE17">
+        <v>3369</v>
+      </c>
+      <c r="AF17">
+        <v>3853</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI17">
+        <v>180</v>
+      </c>
+      <c r="AJ17">
+        <v>170</v>
+      </c>
+      <c r="AK17">
+        <v>140</v>
+      </c>
+      <c r="AL17">
+        <v>180</v>
+      </c>
+      <c r="AM17">
+        <v>170</v>
+      </c>
+      <c r="AN17">
+        <v>160</v>
+      </c>
+      <c r="AO17">
+        <v>170</v>
+      </c>
+      <c r="AP17">
+        <v>170</v>
+      </c>
+      <c r="AQ17">
+        <v>160</v>
+      </c>
+      <c r="AR17">
+        <v>180</v>
+      </c>
+      <c r="AS17">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="21:45" x14ac:dyDescent="0.35">
+      <c r="U18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18">
+        <v>67</v>
+      </c>
+      <c r="W18">
+        <v>175</v>
+      </c>
+      <c r="X18">
+        <v>243</v>
+      </c>
+      <c r="Y18">
+        <v>152</v>
+      </c>
+      <c r="Z18">
+        <v>122</v>
+      </c>
+      <c r="AA18">
+        <v>152</v>
+      </c>
+      <c r="AB18">
+        <v>147</v>
+      </c>
+      <c r="AC18">
+        <v>103</v>
+      </c>
+      <c r="AD18">
+        <v>335</v>
+      </c>
+      <c r="AE18">
+        <v>115</v>
+      </c>
+      <c r="AF18">
+        <v>149</v>
+      </c>
+      <c r="AH18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI18">
+        <v>360</v>
+      </c>
+      <c r="AJ18">
+        <v>340</v>
+      </c>
+      <c r="AK18">
+        <v>280</v>
+      </c>
+      <c r="AL18">
+        <v>360</v>
+      </c>
+      <c r="AM18">
+        <v>340</v>
+      </c>
+      <c r="AN18">
+        <v>320</v>
+      </c>
+      <c r="AO18">
+        <v>340</v>
+      </c>
+      <c r="AP18">
+        <v>340</v>
+      </c>
+      <c r="AQ18">
+        <v>320</v>
+      </c>
+      <c r="AR18">
+        <v>360</v>
+      </c>
+      <c r="AS18">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="21:45" x14ac:dyDescent="0.35">
+      <c r="U19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V19">
+        <v>10746</v>
+      </c>
+      <c r="W19">
+        <v>11626</v>
+      </c>
+      <c r="X19">
+        <v>11663</v>
+      </c>
+      <c r="Y19">
+        <v>9209</v>
+      </c>
+      <c r="Z19">
+        <v>9920</v>
+      </c>
+      <c r="AA19">
+        <v>10769</v>
+      </c>
+      <c r="AB19">
+        <v>7974</v>
+      </c>
+      <c r="AC19">
+        <v>8404</v>
+      </c>
+      <c r="AD19">
+        <v>8808</v>
+      </c>
+      <c r="AE19">
+        <v>4640</v>
+      </c>
+      <c r="AF19">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="21" spans="21:45" x14ac:dyDescent="0.35">
+      <c r="AI21" s="11">
+        <v>202310</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>202311</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>202312</v>
+      </c>
+      <c r="AL21" s="11">
+        <v>202401</v>
+      </c>
+      <c r="AM21" s="11">
+        <v>202402</v>
+      </c>
+      <c r="AN21" s="11">
+        <v>202403</v>
+      </c>
+      <c r="AO21" s="11">
+        <v>202404</v>
+      </c>
+      <c r="AP21" s="11">
+        <v>202405</v>
+      </c>
+      <c r="AQ21" s="11">
+        <v>202406</v>
+      </c>
+      <c r="AR21" s="11">
+        <v>202407</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>202408</v>
+      </c>
+    </row>
+    <row r="22" spans="21:45" x14ac:dyDescent="0.35">
+      <c r="AH22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI22">
+        <f>AI7/AI15</f>
+        <v>1.1612819999999999</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" ref="AJ22:AS22" si="0">AJ7/AJ15</f>
+        <v>1.2148427647058826</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="0"/>
+        <v>1.445124857142857</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="0"/>
+        <v>0.89262500000000011</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="0"/>
+        <v>1.0420941176470588</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="0"/>
+        <v>1.0492413749999998</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="0"/>
+        <v>0.76298135294117642</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="0"/>
+        <v>0.78309847058823534</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="0"/>
+        <v>0.87445799999999996</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="0"/>
+        <v>0.74220150000000007</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="0"/>
+        <v>1.0079714117647061</v>
+      </c>
+    </row>
+    <row r="23" spans="21:45" x14ac:dyDescent="0.35">
+      <c r="AH23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" ref="AI23:AS25" si="1">AI8/AI16</f>
+        <v>0.48273250277777779</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="1"/>
+        <v>0.58735313823529411</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="1"/>
+        <v>0.70782600000000007</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="1"/>
+        <v>0.41398507499999998</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="1"/>
+        <v>0.52069769705882352</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="1"/>
+        <v>0.57279965312500003</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="1"/>
+        <v>0.41273414411764708</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="1"/>
+        <v>0.40689037941176476</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="1"/>
+        <v>0.49291698750000001</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="1"/>
+        <v>0.32288524722222223</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" si="1"/>
+        <v>0.37432965294117643</v>
+      </c>
+    </row>
+    <row r="24" spans="21:45" x14ac:dyDescent="0.35">
+      <c r="AH24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="1"/>
+        <v>1.9323888888888887</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="1"/>
+        <v>1.7562352941176471</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="1"/>
+        <v>2.0597142857142856</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="1"/>
+        <v>1.3470555555555557</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="1"/>
+        <v>1.4521764705882354</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="1"/>
+        <v>1.3058125</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="1"/>
+        <v>0.96176470588235297</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="1"/>
+        <v>1.0410000000000001</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="1"/>
+        <v>1.0382500000000001</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="1"/>
+        <v>1.1887777777777779</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="1"/>
+        <v>1.8211764705882354</v>
+      </c>
+    </row>
+    <row r="25" spans="21:45" x14ac:dyDescent="0.35">
+      <c r="AH25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="1"/>
+        <v>0.96619444444444436</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="1"/>
+        <v>0.87811764705882356</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="1"/>
+        <v>1.0298571428571428</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="1"/>
+        <v>0.67352777777777784</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="1"/>
+        <v>0.7260882352941177</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="1"/>
+        <v>0.65290625000000002</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="1"/>
+        <v>0.48088235294117648</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="1"/>
+        <v>0.52050000000000007</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="1"/>
+        <v>0.51912500000000006</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="1"/>
+        <v>0.59438888888888897</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="1"/>
+        <v>0.9105882352941177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E099F10-FA1B-43D2-A786-45F554B217C9}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5489,22 +7308,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D9C9E0-01B7-40C5-9ABE-805BCCAA727D}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="8.7265625" style="5"/>
     <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5672,7 +7492,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B13">
@@ -5686,7 +7506,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B14">
@@ -5700,7 +7520,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B15">
@@ -5714,7 +7534,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B16">
@@ -5728,7 +7548,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B17">
@@ -5742,7 +7562,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B18">
@@ -5756,7 +7576,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B19">
@@ -5770,7 +7590,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B20">
@@ -5784,7 +7604,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B21">
@@ -5798,7 +7618,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -5812,7 +7632,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23">
@@ -5826,7 +7646,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24">
@@ -5840,7 +7660,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B25">
@@ -5854,7 +7674,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26">
@@ -5868,7 +7688,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B27">
@@ -5882,7 +7702,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B28">
@@ -5896,7 +7716,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B29">
@@ -5910,7 +7730,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B30">
@@ -5924,7 +7744,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B31">
@@ -5938,7 +7758,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B32">
@@ -5952,7 +7772,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B33">
@@ -5966,7 +7786,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B34">
@@ -5980,7 +7800,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B35">
@@ -5994,7 +7814,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B36">
@@ -6008,7 +7828,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B37">
@@ -6022,7 +7842,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B38">
@@ -6036,7 +7856,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B39">
@@ -6050,7 +7870,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B40">
@@ -6064,7 +7884,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B41">
@@ -6078,7 +7898,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B42">
@@ -6092,7 +7912,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B43">
@@ -6106,7 +7926,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B44">
@@ -6120,7 +7940,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B45">
@@ -6134,7 +7954,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B46">
@@ -6148,7 +7968,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B47">
@@ -6162,7 +7982,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B48">
@@ -6176,7 +7996,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B49">
@@ -6190,7 +8010,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B50">
@@ -6204,7 +8024,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B51">
@@ -6218,7 +8038,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B52">
@@ -6232,7 +8052,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B53">
@@ -6246,7 +8066,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B54">
@@ -6260,7 +8080,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B55">
@@ -6274,7 +8094,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B56">
@@ -6288,7 +8108,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57">
+      <c r="A57" s="5">
         <v>43345</v>
       </c>
       <c r="B57">
@@ -6302,7 +8122,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58">
+      <c r="A58" s="5">
         <v>43345</v>
       </c>
       <c r="B58">
@@ -6316,7 +8136,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59">
+      <c r="A59" s="5">
         <v>43345</v>
       </c>
       <c r="B59">
@@ -6330,7 +8150,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60">
+      <c r="A60" s="5">
         <v>43345</v>
       </c>
       <c r="B60">
@@ -6344,7 +8164,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61">
+      <c r="A61" s="5">
         <v>43345</v>
       </c>
       <c r="B61">
@@ -6358,7 +8178,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62">
+      <c r="A62" s="5">
         <v>43345</v>
       </c>
       <c r="B62">
@@ -6372,7 +8192,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63">
+      <c r="A63" s="5">
         <v>43345</v>
       </c>
       <c r="B63">
@@ -6386,7 +8206,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64">
+      <c r="A64" s="5">
         <v>43345</v>
       </c>
       <c r="B64">
@@ -6400,7 +8220,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65">
+      <c r="A65" s="5">
         <v>43345</v>
       </c>
       <c r="B65">
@@ -6414,7 +8234,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66">
+      <c r="A66" s="5">
         <v>43345</v>
       </c>
       <c r="B66">
@@ -6428,7 +8248,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67">
+      <c r="A67" s="5">
         <v>43345</v>
       </c>
       <c r="B67">
@@ -6442,7 +8262,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68">
+      <c r="A68" s="5">
         <v>52042</v>
       </c>
       <c r="B68">
@@ -6456,7 +8276,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69">
+      <c r="A69" s="5">
         <v>52042</v>
       </c>
       <c r="B69">
@@ -6470,7 +8290,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70">
+      <c r="A70" s="5">
         <v>52042</v>
       </c>
       <c r="B70">
@@ -6484,7 +8304,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71">
+      <c r="A71" s="5">
         <v>52042</v>
       </c>
       <c r="B71">
@@ -6498,7 +8318,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72">
+      <c r="A72" s="5">
         <v>52042</v>
       </c>
       <c r="B72">
@@ -6512,7 +8332,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73">
+      <c r="A73" s="5">
         <v>52042</v>
       </c>
       <c r="B73">
@@ -6526,7 +8346,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74">
+      <c r="A74" s="5">
         <v>52042</v>
       </c>
       <c r="B74">
@@ -6540,7 +8360,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75">
+      <c r="A75" s="5">
         <v>52042</v>
       </c>
       <c r="B75">
@@ -6554,7 +8374,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76">
+      <c r="A76" s="5">
         <v>52042</v>
       </c>
       <c r="B76">
@@ -6568,7 +8388,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77">
+      <c r="A77" s="5">
         <v>52042</v>
       </c>
       <c r="B77">
@@ -6582,7 +8402,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78">
+      <c r="A78" s="5">
         <v>52042</v>
       </c>
       <c r="B78">
@@ -6596,7 +8416,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79">
+      <c r="A79" s="5">
         <v>52043</v>
       </c>
       <c r="B79">
@@ -6610,7 +8430,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80">
+      <c r="A80" s="5">
         <v>52043</v>
       </c>
       <c r="B80">
@@ -6624,7 +8444,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81">
+      <c r="A81" s="5">
         <v>52043</v>
       </c>
       <c r="B81">
@@ -6638,7 +8458,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82">
+      <c r="A82" s="5">
         <v>52043</v>
       </c>
       <c r="B82">
@@ -6652,7 +8472,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83">
+      <c r="A83" s="5">
         <v>52043</v>
       </c>
       <c r="B83">
@@ -6666,7 +8486,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84">
+      <c r="A84" s="5">
         <v>52043</v>
       </c>
       <c r="B84">
@@ -6680,7 +8500,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85">
+      <c r="A85" s="5">
         <v>52043</v>
       </c>
       <c r="B85">
@@ -6694,7 +8514,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86">
+      <c r="A86" s="5">
         <v>52043</v>
       </c>
       <c r="B86">
@@ -6708,7 +8528,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87">
+      <c r="A87" s="5">
         <v>52043</v>
       </c>
       <c r="B87">
@@ -6722,7 +8542,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88">
+      <c r="A88" s="5">
         <v>52043</v>
       </c>
       <c r="B88">
@@ -6736,7 +8556,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89">
+      <c r="A89" s="5">
         <v>52043</v>
       </c>
       <c r="B89">
@@ -6750,7 +8570,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90">
+      <c r="A90" s="5">
         <v>52044</v>
       </c>
       <c r="B90">
@@ -6764,7 +8584,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91">
+      <c r="A91" s="5">
         <v>52044</v>
       </c>
       <c r="B91">
@@ -6778,7 +8598,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92">
+      <c r="A92" s="5">
         <v>52044</v>
       </c>
       <c r="B92">
@@ -6792,7 +8612,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93">
+      <c r="A93" s="5">
         <v>52044</v>
       </c>
       <c r="B93">
@@ -6806,7 +8626,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94">
+      <c r="A94" s="5">
         <v>52044</v>
       </c>
       <c r="B94">
@@ -6820,7 +8640,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95">
+      <c r="A95" s="5">
         <v>52044</v>
       </c>
       <c r="B95">
@@ -6834,7 +8654,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96">
+      <c r="A96" s="5">
         <v>52044</v>
       </c>
       <c r="B96">
@@ -6848,7 +8668,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97">
+      <c r="A97" s="5">
         <v>52044</v>
       </c>
       <c r="B97">
@@ -6862,7 +8682,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98">
+      <c r="A98" s="5">
         <v>52044</v>
       </c>
       <c r="B98">
@@ -6876,7 +8696,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99">
+      <c r="A99" s="5">
         <v>52044</v>
       </c>
       <c r="B99">
@@ -6890,7 +8710,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100">
+      <c r="A100" s="5">
         <v>52044</v>
       </c>
       <c r="B100">
@@ -6904,7 +8724,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101">
+      <c r="A101" s="5">
         <v>52045</v>
       </c>
       <c r="B101">
@@ -6918,7 +8738,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102">
+      <c r="A102" s="5">
         <v>52045</v>
       </c>
       <c r="B102">
@@ -6932,7 +8752,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103">
+      <c r="A103" s="5">
         <v>52045</v>
       </c>
       <c r="B103">
@@ -6946,7 +8766,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104">
+      <c r="A104" s="5">
         <v>52045</v>
       </c>
       <c r="B104">
@@ -6960,7 +8780,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105">
+      <c r="A105" s="5">
         <v>52045</v>
       </c>
       <c r="B105">
@@ -6974,7 +8794,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106">
+      <c r="A106" s="5">
         <v>52045</v>
       </c>
       <c r="B106">
@@ -6988,7 +8808,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107">
+      <c r="A107" s="5">
         <v>52045</v>
       </c>
       <c r="B107">
@@ -7002,7 +8822,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108">
+      <c r="A108" s="5">
         <v>52045</v>
       </c>
       <c r="B108">
@@ -7016,7 +8836,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109">
+      <c r="A109" s="5">
         <v>52045</v>
       </c>
       <c r="B109">
@@ -7030,7 +8850,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110">
+      <c r="A110" s="5">
         <v>52045</v>
       </c>
       <c r="B110">
@@ -7044,7 +8864,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111">
+      <c r="A111" s="5">
         <v>52045</v>
       </c>
       <c r="B111">
@@ -7058,7 +8878,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112">
+      <c r="A112" s="5">
         <v>52046</v>
       </c>
       <c r="B112">
@@ -7072,7 +8892,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113">
+      <c r="A113" s="5">
         <v>52046</v>
       </c>
       <c r="B113">
@@ -7086,7 +8906,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114">
+      <c r="A114" s="5">
         <v>52046</v>
       </c>
       <c r="B114">
@@ -7100,7 +8920,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115">
+      <c r="A115" s="5">
         <v>52046</v>
       </c>
       <c r="B115">
@@ -7114,7 +8934,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116">
+      <c r="A116" s="5">
         <v>52046</v>
       </c>
       <c r="B116">
@@ -7128,7 +8948,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117">
+      <c r="A117" s="5">
         <v>52046</v>
       </c>
       <c r="B117">
@@ -7142,7 +8962,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118">
+      <c r="A118" s="5">
         <v>52046</v>
       </c>
       <c r="B118">
@@ -7156,7 +8976,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119">
+      <c r="A119" s="5">
         <v>52046</v>
       </c>
       <c r="B119">
@@ -7170,7 +8990,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120">
+      <c r="A120" s="5">
         <v>52046</v>
       </c>
       <c r="B120">
@@ -7184,7 +9004,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121">
+      <c r="A121" s="5">
         <v>52046</v>
       </c>
       <c r="B121">
@@ -7198,7 +9018,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122">
+      <c r="A122" s="5">
         <v>52046</v>
       </c>
       <c r="B122">
@@ -7212,7 +9032,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123">
+      <c r="A123" s="5">
         <v>52047</v>
       </c>
       <c r="B123">
@@ -7226,7 +9046,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124">
+      <c r="A124" s="5">
         <v>52047</v>
       </c>
       <c r="B124">
@@ -7240,7 +9060,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125">
+      <c r="A125" s="5">
         <v>52047</v>
       </c>
       <c r="B125">
@@ -7254,7 +9074,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126">
+      <c r="A126" s="5">
         <v>52047</v>
       </c>
       <c r="B126">
@@ -7268,7 +9088,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127">
+      <c r="A127" s="5">
         <v>52047</v>
       </c>
       <c r="B127">
@@ -7282,7 +9102,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128">
+      <c r="A128" s="5">
         <v>52047</v>
       </c>
       <c r="B128">
@@ -7296,7 +9116,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129">
+      <c r="A129" s="5">
         <v>52047</v>
       </c>
       <c r="B129">
@@ -7310,7 +9130,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130">
+      <c r="A130" s="5">
         <v>52047</v>
       </c>
       <c r="B130">
@@ -7324,7 +9144,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131">
+      <c r="A131" s="5">
         <v>52047</v>
       </c>
       <c r="B131">
@@ -7338,7 +9158,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132">
+      <c r="A132" s="5">
         <v>52047</v>
       </c>
       <c r="B132">
@@ -7352,7 +9172,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133">
+      <c r="A133" s="5">
         <v>52047</v>
       </c>
       <c r="B133">
@@ -7366,7 +9186,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134">
+      <c r="A134" s="5">
         <v>52048</v>
       </c>
       <c r="B134">
@@ -7380,7 +9200,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135">
+      <c r="A135" s="5">
         <v>52048</v>
       </c>
       <c r="B135">
@@ -7394,7 +9214,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136">
+      <c r="A136" s="5">
         <v>52048</v>
       </c>
       <c r="B136">
@@ -7408,7 +9228,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137">
+      <c r="A137" s="5">
         <v>52048</v>
       </c>
       <c r="B137">
@@ -7422,7 +9242,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138">
+      <c r="A138" s="5">
         <v>52048</v>
       </c>
       <c r="B138">
@@ -7436,7 +9256,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139">
+      <c r="A139" s="5">
         <v>52048</v>
       </c>
       <c r="B139">
@@ -7450,7 +9270,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140">
+      <c r="A140" s="5">
         <v>52048</v>
       </c>
       <c r="B140">
@@ -7464,7 +9284,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141">
+      <c r="A141" s="5">
         <v>52048</v>
       </c>
       <c r="B141">
@@ -7478,7 +9298,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142">
+      <c r="A142" s="5">
         <v>52048</v>
       </c>
       <c r="B142">
@@ -7492,7 +9312,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143">
+      <c r="A143" s="5">
         <v>52048</v>
       </c>
       <c r="B143">
@@ -7506,7 +9326,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144">
+      <c r="A144" s="5">
         <v>52048</v>
       </c>
       <c r="B144">
@@ -7520,7 +9340,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145">
+      <c r="A145" s="5">
         <v>52049</v>
       </c>
       <c r="B145">
@@ -7534,7 +9354,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146">
+      <c r="A146" s="5">
         <v>52049</v>
       </c>
       <c r="B146">
@@ -7548,7 +9368,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147">
+      <c r="A147" s="5">
         <v>52049</v>
       </c>
       <c r="B147">
@@ -7562,7 +9382,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148">
+      <c r="A148" s="5">
         <v>52049</v>
       </c>
       <c r="B148">
@@ -7576,7 +9396,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149">
+      <c r="A149" s="5">
         <v>52049</v>
       </c>
       <c r="B149">
@@ -7590,7 +9410,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150">
+      <c r="A150" s="5">
         <v>52049</v>
       </c>
       <c r="B150">
@@ -7604,7 +9424,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151">
+      <c r="A151" s="5">
         <v>52049</v>
       </c>
       <c r="B151">
@@ -7618,7 +9438,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152">
+      <c r="A152" s="5">
         <v>52049</v>
       </c>
       <c r="B152">
@@ -7632,7 +9452,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153">
+      <c r="A153" s="5">
         <v>52049</v>
       </c>
       <c r="B153">
@@ -7646,7 +9466,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154">
+      <c r="A154" s="5">
         <v>52049</v>
       </c>
       <c r="B154">
@@ -7660,7 +9480,7 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155">
+      <c r="A155" s="5">
         <v>52049</v>
       </c>
       <c r="B155">
@@ -7674,7 +9494,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156">
+      <c r="A156" s="5">
         <v>52051</v>
       </c>
       <c r="B156">
@@ -7688,7 +9508,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157">
+      <c r="A157" s="5">
         <v>52051</v>
       </c>
       <c r="B157">
@@ -7702,7 +9522,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158">
+      <c r="A158" s="5">
         <v>52051</v>
       </c>
       <c r="B158">
@@ -7716,7 +9536,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159">
+      <c r="A159" s="5">
         <v>52051</v>
       </c>
       <c r="B159">
@@ -7730,7 +9550,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160">
+      <c r="A160" s="5">
         <v>52051</v>
       </c>
       <c r="B160">
@@ -7744,7 +9564,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161">
+      <c r="A161" s="5">
         <v>52051</v>
       </c>
       <c r="B161">
@@ -7758,7 +9578,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162">
+      <c r="A162" s="5">
         <v>52051</v>
       </c>
       <c r="B162">
@@ -7772,7 +9592,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163">
+      <c r="A163" s="5">
         <v>52051</v>
       </c>
       <c r="B163">
@@ -7786,7 +9606,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164">
+      <c r="A164" s="5">
         <v>52051</v>
       </c>
       <c r="B164">
@@ -7800,7 +9620,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165">
+      <c r="A165" s="5">
         <v>52051</v>
       </c>
       <c r="B165">
@@ -7814,7 +9634,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166">
+      <c r="A166" s="5">
         <v>52051</v>
       </c>
       <c r="B166">
@@ -7828,7 +9648,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167">
+      <c r="A167" s="5">
         <v>87783</v>
       </c>
       <c r="B167">
@@ -7842,7 +9662,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168">
+      <c r="A168" s="5">
         <v>87783</v>
       </c>
       <c r="B168">
@@ -7856,7 +9676,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169">
+      <c r="A169" s="5">
         <v>87783</v>
       </c>
       <c r="B169">
@@ -7870,7 +9690,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170">
+      <c r="A170" s="5">
         <v>87783</v>
       </c>
       <c r="B170">
@@ -7884,7 +9704,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171">
+      <c r="A171" s="5">
         <v>87783</v>
       </c>
       <c r="B171">
@@ -7898,7 +9718,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172">
+      <c r="A172" s="5">
         <v>87783</v>
       </c>
       <c r="B172">
@@ -7912,7 +9732,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173">
+      <c r="A173" s="5">
         <v>87783</v>
       </c>
       <c r="B173">
@@ -7926,7 +9746,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174">
+      <c r="A174" s="5">
         <v>87783</v>
       </c>
       <c r="B174">
@@ -7940,7 +9760,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175">
+      <c r="A175" s="5">
         <v>87783</v>
       </c>
       <c r="B175">
@@ -7954,7 +9774,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176">
+      <c r="A176" s="5">
         <v>87783</v>
       </c>
       <c r="B176">
@@ -7968,7 +9788,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177">
+      <c r="A177" s="5">
         <v>87783</v>
       </c>
       <c r="B177">
@@ -7982,7 +9802,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178">
+      <c r="A178" s="5">
         <v>91850</v>
       </c>
       <c r="B178">
@@ -7996,7 +9816,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179">
+      <c r="A179" s="5">
         <v>91850</v>
       </c>
       <c r="B179">
@@ -8010,7 +9830,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180">
+      <c r="A180" s="5">
         <v>91850</v>
       </c>
       <c r="B180">
@@ -8024,7 +9844,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181">
+      <c r="A181" s="5">
         <v>91850</v>
       </c>
       <c r="B181">
@@ -8038,7 +9858,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182">
+      <c r="A182" s="5">
         <v>91850</v>
       </c>
       <c r="B182">
@@ -8052,7 +9872,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183">
+      <c r="A183" s="5">
         <v>91850</v>
       </c>
       <c r="B183">
@@ -8066,7 +9886,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184">
+      <c r="A184" s="5">
         <v>91850</v>
       </c>
       <c r="B184">
@@ -8080,7 +9900,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185">
+      <c r="A185" s="5">
         <v>91850</v>
       </c>
       <c r="B185">
@@ -8094,7 +9914,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186">
+      <c r="A186" s="5">
         <v>91850</v>
       </c>
       <c r="B186">
@@ -8108,7 +9928,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187">
+      <c r="A187" s="5">
         <v>91850</v>
       </c>
       <c r="B187">
@@ -8122,7 +9942,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188">
+      <c r="A188" s="5">
         <v>91850</v>
       </c>
       <c r="B188">
@@ -8133,6 +9953,314 @@
       </c>
       <c r="D188" s="2">
         <v>9135</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189">
+        <v>202310</v>
+      </c>
+      <c r="C189" t="s">
+        <v>58</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190">
+        <v>202311</v>
+      </c>
+      <c r="C190" t="s">
+        <v>58</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191">
+        <v>202312</v>
+      </c>
+      <c r="C191" t="s">
+        <v>58</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192">
+        <v>202401</v>
+      </c>
+      <c r="C192" t="s">
+        <v>58</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193">
+        <v>202402</v>
+      </c>
+      <c r="C193" t="s">
+        <v>58</v>
+      </c>
+      <c r="D193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194">
+        <v>202403</v>
+      </c>
+      <c r="C194" t="s">
+        <v>58</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195">
+        <v>202404</v>
+      </c>
+      <c r="C195" t="s">
+        <v>58</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196">
+        <v>202405</v>
+      </c>
+      <c r="C196" t="s">
+        <v>58</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B197">
+        <v>202406</v>
+      </c>
+      <c r="C197" t="s">
+        <v>58</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198">
+        <v>202407</v>
+      </c>
+      <c r="C198" t="s">
+        <v>58</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199">
+        <v>202408</v>
+      </c>
+      <c r="C199" t="s">
+        <v>58</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B200">
+        <v>202310</v>
+      </c>
+      <c r="C200" t="s">
+        <v>58</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B201">
+        <v>202311</v>
+      </c>
+      <c r="C201" t="s">
+        <v>58</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B202">
+        <v>202312</v>
+      </c>
+      <c r="C202" t="s">
+        <v>58</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B203">
+        <v>202401</v>
+      </c>
+      <c r="C203" t="s">
+        <v>58</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B204">
+        <v>202402</v>
+      </c>
+      <c r="C204" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B205">
+        <v>202403</v>
+      </c>
+      <c r="C205" t="s">
+        <v>58</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B206">
+        <v>202404</v>
+      </c>
+      <c r="C206" t="s">
+        <v>58</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B207">
+        <v>202405</v>
+      </c>
+      <c r="C207" t="s">
+        <v>58</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B208">
+        <v>202406</v>
+      </c>
+      <c r="C208" t="s">
+        <v>58</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B209">
+        <v>202407</v>
+      </c>
+      <c r="C209" t="s">
+        <v>58</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B210">
+        <v>202408</v>
+      </c>
+      <c r="C210" t="s">
+        <v>58</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8140,12 +10268,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8472E45-B98D-4B8B-9BC0-59A0B23E2756}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
